--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3041339.673464055</v>
+        <v>3145519.307915126</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>175.6439241814626</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>142.4741679217952</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>127.90247608171</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166281869766549</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,16 +876,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>261.5116590732646</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>325.6326162183671</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>69.51608747328021</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>36.86810533549407</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>5.400304892653722</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>171.0483567097089</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>91.80185417394958</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>67.91380142175041</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D13" t="n">
-        <v>145.2857567969026</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>124.412118557032</v>
       </c>
       <c r="I16" t="n">
-        <v>35.41770597126712</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>9.146142788179382</v>
+        <v>26.05480806223632</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>2.813978415465053</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>46.35517081455701</v>
       </c>
       <c r="T25" t="n">
-        <v>30.65104903283357</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>13.74238375877689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>222.1774156618444</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>30.6510490328338</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>4.974488840438626</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>10.74993283584276</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>21.6971857188523</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3667,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>34.21058558914867</v>
+        <v>54.31367585848631</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>31.39650288673297</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.2857567969021</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2107.513093752762</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1738.55057681235</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1380.2848782056</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>994.4966256073556</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>583.5107208177481</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
@@ -4340,16 +4342,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4364,16 +4366,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792696</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2884.252265792696</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X2" t="n">
-        <v>2884.252265792696</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y2" t="n">
-        <v>2494.112933816884</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.8175152271517</v>
+        <v>777.020896318616</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8175152271517</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D4" t="n">
-        <v>362.8175152271517</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E4" t="n">
-        <v>362.8175152271517</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>215.9275677292414</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>215.9275677292414</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>69.71038094709914</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8175152271517</v>
+        <v>906.2153166031716</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495404</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1127.748203495404</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D5" t="n">
-        <v>769.4825048886539</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="E5" t="n">
-        <v>383.6942522904097</v>
+        <v>741.9599508971583</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>735.0144501479548</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4661,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847.3980557622425</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343356</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219999</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
-        <v>1767.24582067099</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.24582067099</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W7" t="n">
-        <v>1477.82865063403</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X7" t="n">
-        <v>1249.839099736012</v>
+        <v>553.5665556852751</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.046520592482</v>
+        <v>332.773976541745</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968308</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C8" t="n">
-        <v>1238.038871968308</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>879.7731733615576</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>493.9849207633134</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>82.99901597370581</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>71.96696985910636</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>71.96696985910636</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,13 +4816,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4829,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>3042.53903524767</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.2446860521933</v>
+        <v>798.5065461617548</v>
       </c>
       <c r="C10" t="n">
-        <v>532.2446860521933</v>
+        <v>629.570363233848</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398575</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574644</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1744.734945215768</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1744.734945215768</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1455.632078341412</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1200.947590135525</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983425</v>
+        <v>1200.947590135525</v>
       </c>
       <c r="X10" t="n">
-        <v>713.893150882433</v>
+        <v>1200.947590135525</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.893150882433</v>
+        <v>980.1550109919946</v>
       </c>
     </row>
     <row r="11">
@@ -5024,28 +5026,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565524</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>631.5645865368213</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,58 +5266,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.765362972544</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2387.388512467613</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925226</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101294</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="F16" t="n">
-        <v>296.7882229101294</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="G16" t="n">
-        <v>129.5921236250094</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="H16" t="n">
-        <v>129.5921236250094</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5512,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>2726.914133601551</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>3324.292621228103</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>3951.89058478271</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>4503.800315021997</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="19">
@@ -5647,55 +5649,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746419</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="H19" t="n">
-        <v>103.0551911168399</v>
+        <v>120.1346509896247</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5713,10 +5715,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615664</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334537</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673286</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.54608366783</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694715</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740623</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385789</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590556</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118211</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118211</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>2878.32816333397</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>3475.706650960522</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>4103.304614515129</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>4655.214344754417</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301204</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022978</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566163</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.23547033442</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606219</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400686</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635732</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2815.530845237133</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C22" t="n">
-        <v>2646.594662309226</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D22" t="n">
-        <v>2646.594662309226</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2646.594662309226</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4681.594624329724</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4498.739789984628</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>4279.13832500757</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>3990.063098351768</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>3735.378610145881</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W22" t="n">
-        <v>3445.96144010892</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X22" t="n">
-        <v>3217.971889210903</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y22" t="n">
-        <v>2997.179310067373</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192505</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6054,40 +6056,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1366.386875345992</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>1918.296605585279</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>702.4944101284095</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>533.5582272005026</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4415877881669</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2333.093974969474</v>
       </c>
       <c r="T25" t="n">
-        <v>2166.101889898846</v>
+        <v>2113.492509992416</v>
       </c>
       <c r="U25" t="n">
-        <v>1877.026663243044</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V25" t="n">
-        <v>1622.342175037157</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W25" t="n">
-        <v>1332.925005000197</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X25" t="n">
-        <v>1104.935454102179</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>884.1428749586493</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6215,40 +6217,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075818</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D28" t="n">
-        <v>564.5188827892232</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>416.6057892068301</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6385,49 +6387,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K30" t="n">
-        <v>251.562654109227</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>3951.890584782709</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="32">
@@ -6680,55 +6682,55 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>808.8888553856862</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C34" t="n">
-        <v>639.9526724577793</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D34" t="n">
-        <v>489.8360330454435</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.5373202159259</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>3025.224490384402</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>2856.288307456495</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>2856.288307456495</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>2708.375213874102</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>3655.65508525619</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>3427.665534358172</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>3206.872955214642</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7193,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7315,10 +7317,10 @@
         <v>377.6556127449245</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851784</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851784</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
         <v>175.9033664000583</v>
@@ -7327,7 +7329,7 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,52 +7399,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468472</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>2728.681520806316</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>3051.062654156518</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517213</v>
+        <v>3678.660617711125</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.2213777565</v>
+        <v>4230.570347950412</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>3839.850899059799</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>4391.760629299086</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>631.5645865368208</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>631.5645865368208</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D13" t="n">
-        <v>3.329716221309724</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>15.88259428919189</v>
       </c>
       <c r="I16" t="n">
-        <v>45.8481303472984</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.11969353038614</v>
+        <v>55.2110282563292</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194085</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>249.323664908363</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>134.6711151870876</v>
       </c>
       <c r="T25" t="n">
-        <v>186.7544012944547</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>131.6786642641543</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>64.34558267474662</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>114.7699989900974</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>141.4594738061305</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>214.9597225531944</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>264.8258126177387</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>112.2233770574205</v>
+        <v>92.12028678808286</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>194.3131525023042</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1352912260291248</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>719672.0419590264</v>
+        <v>719672.0419590265</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287557</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287549</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287557</v>
-      </c>
       <c r="M2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820645</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820641</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685514</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
+        <v>14216.75207685511</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="N4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="M4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14216.75207685501</v>
-      </c>
       <c r="O4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811670.9245059439</v>
+        <v>-811670.9245059444</v>
       </c>
       <c r="C6" t="n">
-        <v>517073.8212216485</v>
+        <v>517073.8212216482</v>
       </c>
       <c r="D6" t="n">
-        <v>517073.8212216485</v>
+        <v>517073.8212216482</v>
       </c>
       <c r="E6" t="n">
-        <v>265501.5310206382</v>
+        <v>265501.531020638</v>
       </c>
       <c r="F6" t="n">
-        <v>590913.9928279935</v>
+        <v>590913.9928279931</v>
       </c>
       <c r="G6" t="n">
-        <v>590913.9928279932</v>
+        <v>590913.9928279931</v>
       </c>
       <c r="H6" t="n">
-        <v>590913.9928279935</v>
+        <v>590913.9928279936</v>
       </c>
       <c r="I6" t="n">
-        <v>590913.9928279928</v>
+        <v>590913.9928279936</v>
       </c>
       <c r="J6" t="n">
         <v>373382.7904307158</v>
@@ -26549,19 +26551,19 @@
         <v>590913.9928279931</v>
       </c>
       <c r="L6" t="n">
-        <v>590913.9928279936</v>
+        <v>590913.9928279934</v>
       </c>
       <c r="M6" t="n">
-        <v>505858.9648924814</v>
+        <v>505858.9648924813</v>
       </c>
       <c r="N6" t="n">
+        <v>590913.9928279935</v>
+      </c>
+      <c r="O6" t="n">
+        <v>590913.9928279932</v>
+      </c>
+      <c r="P6" t="n">
         <v>590913.9928279934</v>
-      </c>
-      <c r="O6" t="n">
-        <v>590913.9928279931</v>
-      </c>
-      <c r="P6" t="n">
-        <v>590913.9928279935</v>
       </c>
     </row>
   </sheetData>
@@ -26707,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26823,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26963,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973558</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973561</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>235.2778014719909</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>243.7637707342584</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>51.92950410022729</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>93.18613854007154</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>145.3643866684469</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>85.28910943508635</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>216.6957507323327</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>188.8415500535431</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>36.17662488027223</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>156.703901760426</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>97.96717115749232</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>157.7958539672867</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28855,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29332,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>7.794735482867122e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29752,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30040,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>9.094947017729281e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30514,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>533.6019216797993</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32074,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32087,19 +32089,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>307.3280120589129</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>285.886712892598</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626459996</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943049</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>539.5330155967683</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>211.7351844430274</v>
+        <v>162.5000833330453</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>146.0225991093089</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>424.0909547148526</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33749,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>237.3557891543625</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33913,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669242</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,28 +33970,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,19 +34207,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>467.7715423565655</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>437.853104691376</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,13 +34450,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>436.0678650906006</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>395.0475418999251</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35735,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.3462379728913</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>151.9123054782678</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243129</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>73.18080466315317</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>35.97859357997467</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>405.558608182438</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>73.18080466315317</v>
+        <v>23.94570355317108</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>8.181160134949948</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>281.4947102704082</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>94.75954470991805</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7540807028593725</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367784</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>325.6375084345472</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>303.8786972770457</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>302.0934576762704</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3145519.307915126</v>
+        <v>3141506.697901133</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>370.064896548357</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>142.4741679217952</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.90247608171</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>303.8290895531838</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>325.6326162183671</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>72.89138480951671</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>36.86810533549407</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>171.0483567097089</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>152.0684032264859</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>91.80185417394958</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>20.43112068613158</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>5.890337106877502</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>124.412118557032</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>26.05480806223632</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>2.813978415465053</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>46.35517081455701</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0.6452826062320446</v>
       </c>
       <c r="W28" t="n">
-        <v>222.1774156618444</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>30.6510490328338</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>10.74993283584276</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>21.6971857188523</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>54.31367585848631</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>31.39650288673297</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="44">
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866151</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2489.080739605071</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
@@ -4421,28 +4421,28 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.020896318616</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C4" t="n">
-        <v>608.0847133907091</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V4" t="n">
-        <v>1416.425065783662</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W4" t="n">
-        <v>1127.007895746702</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="X4" t="n">
-        <v>1127.007895746702</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="Y4" t="n">
-        <v>906.2153166031716</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495403</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="C5" t="n">
-        <v>1127.748203495403</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1127.748203495403</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>741.9599508971583</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>735.0144501479548</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559524</v>
+        <v>2283.102991989294</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,13 +4661,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.773976541745</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242372</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1853.666886664739</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621287</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251681</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X7" t="n">
-        <v>553.5665556852751</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y7" t="n">
-        <v>332.773976541745</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3042.53903524767</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2689.770379977556</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2689.770379977556</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>798.5065461617548</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>629.570363233848</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1744.734945215768</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1744.734945215768</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1455.632078341412</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1200.947590135525</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1200.947590135525</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1200.947590135525</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>980.1550109919946</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5047,28 +5047,28 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>241.4783296672662</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>99.7664985094643</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459586</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180517</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>449.485266605716</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>301.5721730233229</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>301.5721730233229</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>301.5721730233229</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761984</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,34 +5527,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.914133601551</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="M18" t="n">
-        <v>3324.292621228103</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>3951.89058478271</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>4503.800315021997</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4654.193497445482</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445482</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474266</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474266</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474266</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>261.8464821474266</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>120.1346509896247</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,25 +5764,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615664</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334537</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673286</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.54608366783</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694715</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740623</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385789</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590556</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118211</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2383.002557118211</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2878.32816333397</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3475.706650960522</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>4103.304614515129</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>4655.214344754417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398592</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398592</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301204</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022978</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566163</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.23547033442</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606219</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400686</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635732</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192505</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.093974969474</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2113.492509992416</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1824.417283336614</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1569.732795130727</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.315625093766</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,37 +6220,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192684</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111725</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075818</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>806.8386896933887</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9025067654818</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.279733667159</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.279733667159</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.4871545236284</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,34 +6451,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768879</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>266.4891497944948</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,64 +6688,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7772127656159</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1133.425677595856</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7022,19 +7022,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3025.224490384402</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2856.288307456495</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2856.288307456495</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.375213874102</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3655.65508525619</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3427.665534358172</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3206.872955214642</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7259,22 +7259,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572603</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>377.6556127449245</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7432,28 +7432,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590557</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2233.355914590557</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2728.681520806316</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3051.062654156518</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3678.660617711125</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950412</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.19349744548</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356194</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3212.252935505192</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3839.850899059799</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4391.760629299086</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.8157004124963</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.37549921168805</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>15.88259428919189</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>55.2110282563292</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>249.323664908363</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>134.6711151870876</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>251.4923607175959</v>
       </c>
       <c r="W28" t="n">
-        <v>64.34558267474662</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>114.7699989900974</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>214.9597225531944</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>264.8258126177387</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>92.12028678808286</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>194.3131525023042</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>719672.0419590264</v>
+        <v>719672.0419590265</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>719672.0419590264</v>
+        <v>719672.0419590265</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287555</v>
@@ -26371,19 +26371,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820645</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820641</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
+        <v>14216.75207685511</v>
+      </c>
+      <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="H4" t="n">
-        <v>14216.75207685514</v>
-      </c>
       <c r="I4" t="n">
+        <v>14216.75207685511</v>
+      </c>
+      <c r="J4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685509</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811670.9245059444</v>
+        <v>-811670.9245059446</v>
       </c>
       <c r="C6" t="n">
         <v>517073.8212216482</v>
       </c>
       <c r="D6" t="n">
-        <v>517073.8212216482</v>
+        <v>517073.821221648</v>
       </c>
       <c r="E6" t="n">
-        <v>265501.531020638</v>
+        <v>265154.1517662812</v>
       </c>
       <c r="F6" t="n">
-        <v>590913.9928279931</v>
+        <v>590566.6135736364</v>
       </c>
       <c r="G6" t="n">
-        <v>590913.9928279931</v>
+        <v>590566.6135736364</v>
       </c>
       <c r="H6" t="n">
-        <v>590913.9928279936</v>
+        <v>590566.6135736362</v>
       </c>
       <c r="I6" t="n">
-        <v>590913.9928279936</v>
+        <v>590566.613573636</v>
       </c>
       <c r="J6" t="n">
-        <v>373382.7904307158</v>
+        <v>373035.4111763588</v>
       </c>
       <c r="K6" t="n">
-        <v>590913.9928279931</v>
+        <v>590566.6135736365</v>
       </c>
       <c r="L6" t="n">
-        <v>590913.9928279934</v>
+        <v>590566.6135736363</v>
       </c>
       <c r="M6" t="n">
-        <v>505858.9648924813</v>
+        <v>505511.5856381246</v>
       </c>
       <c r="N6" t="n">
-        <v>590913.9928279935</v>
+        <v>590566.6135736364</v>
       </c>
       <c r="O6" t="n">
-        <v>590913.9928279932</v>
+        <v>590566.6135736366</v>
       </c>
       <c r="P6" t="n">
-        <v>590913.9928279934</v>
+        <v>590566.6135736364</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26965,19 +26965,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>12.66894511512362</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.7637707342584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.92950410022729</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>61.44380221782376</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>85.28910943508635</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>213.3204533960962</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>188.8415500535431</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>156.703901760426</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>13.95740503254237</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>97.96717115749232</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28073,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.794735482867122e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.094947017729281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,13 +31864,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>332.1692388321073</v>
+        <v>653.385039637378</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817582</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>669.4669885000075</v>
       </c>
       <c r="P18" t="n">
-        <v>285.886712892598</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626459996</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>169.9530009943049</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>181.6580975439405</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>162.5000833330453</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33183,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>424.0909547148526</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33499,10 +33499,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>290.1088399635148</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>237.3557891543625</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>506.5895320981981</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34210,31 +34210,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>467.7715423565655</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>436.0678650906006</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>161.999986601618</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>189.5729943876629</v>
+        <v>510.7887951929335</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>526.870744055563</v>
       </c>
       <c r="P18" t="n">
-        <v>151.9123054782678</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243129</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>35.97859357997467</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>23.94570355317108</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>281.4947102704082</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37147,10 +37147,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>94.75954470991805</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>368.0351523183239</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37858,31 +37858,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>325.6375084345472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>302.0934576762704</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3141506.697901133</v>
+        <v>3143267.228203919</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.064896548357</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>63.25786276724418</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>303.8290895531838</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -952,10 +952,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>374.3724651321501</v>
       </c>
     </row>
     <row r="6">
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>98.12640288586317</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>72.89138480951671</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>152.0684032264859</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>63.13625055643865</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>5.890337106877502</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784677</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>53.07327741456097</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>74.20064764874429</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6452826062320446</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>105.11626575513</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3672,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,25 +4342,25 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4369,13 +4369,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064756</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080133</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962484</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034577</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>3120.355548834272</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>2892.365997936254</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792724</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2283.102991989294</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4600,19 +4600,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2283.102991989294</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.1346335501037</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>313.5427886871656</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>165.6296951047725</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1853.666886664739</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1598.982398458852</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1309.565228421891</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>1081.575677523874</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
-        <v>860.7830983803434</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="8">
@@ -4804,10 +4804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C10" t="n">
-        <v>463.6594280995014</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D10" t="n">
-        <v>463.6594280995014</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>463.6594280995014</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>463.6594280995014</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1773.690100384972</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1773.690100384972</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1484.587233510615</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1229.902745304728</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>940.4855752677674</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>712.4960243697501</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>491.70344522622</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5120,7 +5120,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.530292372932</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>853.5941094450255</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>703.4774700326898</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>555.5643764502967</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>408.6744289523863</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>241.4783296672662</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>99.7664985094643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.37805728168</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1424.971336346702</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.178757203172</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5509,31 +5509,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,19 +5542,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5600,7 +5600,7 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961522</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
         <v>1337.934786622704</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,13 +5773,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>168.7668121881176</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1754.779756989948</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1465.362586952987</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1237.37303605497</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6600,25 +6600,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557277</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2191.586158026164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1902.510931370362</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.826443164475</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1358.409273127515</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.419722229497</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.6271430859674</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7602,16 +7602,16 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
         <v>753.3092412490405</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.37549921168805</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>191.2691783702298</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>165.5113759375338</v>
       </c>
     </row>
     <row r="23">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.09406519747959</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>251.4923607175959</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>38.59775584152675</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>181.406732581461</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>719672.0419590264</v>
+        <v>719672.0419590265</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="13">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312476</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287552</v>
@@ -26343,19 +26343,19 @@
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811670.9245059446</v>
+        <v>-811670.9245059444</v>
       </c>
       <c r="C6" t="n">
+        <v>517073.8212216484</v>
+      </c>
+      <c r="D6" t="n">
         <v>517073.8212216482</v>
       </c>
-      <c r="D6" t="n">
-        <v>517073.821221648</v>
-      </c>
       <c r="E6" t="n">
-        <v>265154.1517662812</v>
+        <v>265466.7930952022</v>
       </c>
       <c r="F6" t="n">
-        <v>590566.6135736364</v>
+        <v>590879.2549025577</v>
       </c>
       <c r="G6" t="n">
-        <v>590566.6135736364</v>
+        <v>590879.2549025577</v>
       </c>
       <c r="H6" t="n">
-        <v>590566.6135736362</v>
+        <v>590879.2549025575</v>
       </c>
       <c r="I6" t="n">
-        <v>590566.613573636</v>
+        <v>590879.2549025575</v>
       </c>
       <c r="J6" t="n">
-        <v>373035.4111763588</v>
+        <v>373348.0525052801</v>
       </c>
       <c r="K6" t="n">
-        <v>590566.6135736365</v>
+        <v>590879.2549025577</v>
       </c>
       <c r="L6" t="n">
-        <v>590566.6135736363</v>
+        <v>590879.2549025578</v>
       </c>
       <c r="M6" t="n">
-        <v>505511.5856381246</v>
+        <v>505824.2269670459</v>
       </c>
       <c r="N6" t="n">
-        <v>590566.6135736364</v>
+        <v>590879.2549025574</v>
       </c>
       <c r="O6" t="n">
-        <v>590566.6135736366</v>
+        <v>590879.2549025578</v>
       </c>
       <c r="P6" t="n">
-        <v>590566.6135736364</v>
+        <v>590879.2549025578</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.66894511512362</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>291.4251788534388</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>61.44380221782376</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>11.86547352390352</v>
       </c>
     </row>
     <row r="6">
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>47.29464513706807</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>213.3204533960962</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>13.95740503254237</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>126.6327747750032</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32083,16 +32083,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>653.385039637378</v>
+        <v>614.59004755871</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,13 +32101,13 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817582</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,37 +32314,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>669.4669885000075</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>510.7887951929335</v>
+        <v>471.9938031142656</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367777</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>526.870744055563</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
